--- a/web/resources/jpg/test.xlsx
+++ b/web/resources/jpg/test.xlsx
@@ -7,23 +7,50 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Materials" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="1">
-  <si>
-    <t>hello world</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Product ID (String)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Raw plywood</t>
+  </si>
+  <si>
+    <t>Length (int)</t>
+  </si>
+  <si>
+    <t>Weight (int)</t>
+  </si>
+  <si>
+    <t>thickness (int)</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Price (int)</t>
+  </si>
+  <si>
+    <t>1x5</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,19 +58,80 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -52,8 +140,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -358,45 +470,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
